--- a/1-Data-Codes/2-Final_Data/ejemplo_sol.xlsx
+++ b/1-Data-Codes/2-Final_Data/ejemplo_sol.xlsx
@@ -21,17 +21,20 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$L$2:$L$9</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$AB$11</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0.00001</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -39,7 +42,7 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
@@ -53,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>exporter i</t>
   </si>
@@ -157,13 +160,16 @@
     <t>B*S^{-1}</t>
   </si>
   <si>
-    <t>lambda o S-B*S^{-1}</t>
-  </si>
-  <si>
     <t>lambda o S</t>
   </si>
   <si>
     <t>objective sum</t>
+  </si>
+  <si>
+    <t>(lambda o S - B*S^{-1})^2</t>
+  </si>
+  <si>
+    <t>soluciones que yo se</t>
   </si>
 </sst>
 </file>
@@ -218,15 +224,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -523,7 +529,7 @@
     <col min="24" max="24" width="10.53515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.84375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.53515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18.45" x14ac:dyDescent="0.5">
@@ -548,7 +554,7 @@
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="1"/>
@@ -556,21 +562,21 @@
         <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
       <c r="W1" s="6" t="s">
         <v>23</v>
       </c>
@@ -582,7 +588,7 @@
         <v>33</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
@@ -607,43 +613,43 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="5"/>
       <c r="K2" t="s">
         <v>11</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M2">
         <f>+I2*L2</f>
-        <v>1</v>
-      </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
+        <v>100</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
         <f>+C12*D12</f>
         <v>9340.9982941186736</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="2">
         <f>+C16*D16</f>
         <v>6065.1579762038591</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="2">
         <f>+C4*D4</f>
         <v>2345.0999909456082</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="2">
         <f>+C8*D8</f>
         <v>2425.7586599704837</v>
       </c>
@@ -653,15 +659,15 @@
       </c>
       <c r="Y2">
         <f>1/L2</f>
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z2">
         <f>+S2*Y6+T2*Y7+U2*Y8+V2*Y9</f>
-        <v>3517.2934384414898</v>
+        <v>100.00003833537438</v>
       </c>
       <c r="AB2">
-        <f>+M2-Z2</f>
-        <v>-3516.2934384414898</v>
+        <f>+(M2-Z2)^2</f>
+        <v>1.4696009291803258E-9</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
@@ -686,43 +692,43 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="5"/>
       <c r="K3" t="s">
         <v>12</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>105.88235294117648</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M9" si="0">+I3*L3</f>
-        <v>2</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
+        <v>105.88235294117648</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
         <f>+C13*D13</f>
         <v>4670.4991470593368</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <f>+C17*D17</f>
         <v>12130.315952407705</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <f>+C5*D5</f>
         <v>1658.2361061581512</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="2">
         <f>+C9*D9</f>
         <v>3430.5407959742433</v>
       </c>
@@ -732,15 +738,15 @@
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y9" si="1">1/L3</f>
-        <v>0.5</v>
+        <v>9.4444444444444445E-3</v>
       </c>
       <c r="Z3">
         <f>+S3*Y6+T3*Y7+U3*Y8+V3*Y9</f>
-        <v>3621.5276266182395</v>
+        <v>105.88237912162427</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB9" si="2">+M3-Z3</f>
-        <v>-3619.5276266182395</v>
+        <f t="shared" ref="AB3:AB9" si="2">+(M3-Z3)^2</f>
+        <v>6.8541584649146475E-10</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
@@ -763,41 +769,41 @@
         <f>+(F6+F2)/E10</f>
         <v>0.52059296125503129</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="5"/>
       <c r="K4" t="s">
         <v>13</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>88.235294117647058</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>1.5617788837650939</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
+        <v>45.934673051914523</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
         <f>+C2*D2</f>
         <v>4690.1999818912163</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <f>+C6*D6</f>
         <v>3430.5407959742429</v>
       </c>
@@ -807,15 +813,15 @@
       </c>
       <c r="Y4">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>1.1333333333333334E-2</v>
       </c>
       <c r="Z4">
         <f>+U4*Y8+V4*Y9</f>
-        <v>1098.8461683383828</v>
+        <v>45.934549604569952</v>
       </c>
       <c r="AB4">
         <f t="shared" si="2"/>
-        <v>-1097.2843894546177</v>
+        <v>1.5239246881530724E-8</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.4">
@@ -839,41 +845,41 @@
         <f>+(F3+F7)/E3</f>
         <v>0.53640350012556459</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="5"/>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>94.117647058823522</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>2.1456140005022584</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
+        <v>50.48503530593549</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
         <f>+C3*D3</f>
         <v>2345.0999909456082</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="2">
         <f>+C7*D7</f>
         <v>6861.0815919484858</v>
       </c>
@@ -883,15 +889,15 @@
       </c>
       <c r="Y5">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>1.0625000000000001E-2</v>
       </c>
       <c r="Z5">
         <f>+U5*Y8+V5*Y9</f>
-        <v>1192.6494834143618</v>
+        <v>50.484981721864457</v>
       </c>
       <c r="AB5">
         <f t="shared" si="2"/>
-        <v>-1190.5038694138595</v>
+        <v>2.8712526684407253E-9</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.4">
@@ -917,42 +923,42 @@
         <f>+(F10+F11)/D10</f>
         <v>0.22808597442457315</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="5"/>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>1.1404298721228658</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
+        <v>46.529538782612924</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
         <f>+C10*E10</f>
         <v>1924.4557348570243</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="2">
         <f>+C11*E11</f>
         <v>2326.4866744803608</v>
       </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
         <v>0</v>
       </c>
       <c r="W6" s="6"/>
@@ -961,15 +967,15 @@
       </c>
       <c r="Y6">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>4.9019607843137254E-3</v>
       </c>
       <c r="Z6">
         <f>+Q6*Y4+R6*Y5</f>
-        <v>1223.1069135724315</v>
+        <v>46.529419244733447</v>
       </c>
       <c r="AB6">
         <f t="shared" si="2"/>
-        <v>-1221.9664837003086</v>
+        <v>1.4289304630002358E-8</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.4">
@@ -995,42 +1001,42 @@
         <f>+(F14+F15)/D14</f>
         <v>0.22796478705560572</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="5"/>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>1.3677887223336342</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
+        <v>50.380217939288862</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
         <f>+C14*E14</f>
         <v>1360.7957002107435</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="2">
         <f>+C15*E15</f>
         <v>3290.1490077304056</v>
       </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
         <v>0</v>
       </c>
       <c r="W7" s="6"/>
@@ -1039,15 +1045,15 @@
       </c>
       <c r="Y7">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>4.5248868778280547E-3</v>
       </c>
       <c r="Z7">
         <f>+Q7*Y4+R7*Y5</f>
-        <v>1276.1358186695159</v>
+        <v>50.380184476190657</v>
       </c>
       <c r="AB7">
         <f t="shared" si="2"/>
-        <v>-1274.7680299471822</v>
+        <v>1.1197789414967884E-9</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
@@ -1071,42 +1077,42 @@
         <f>+(F2+F3)/D2</f>
         <v>0.46222858155890939</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="5"/>
       <c r="K8" t="s">
         <v>17</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>3.2356000709123656</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
+        <v>78.578858865014595</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
         <f>+C2*E2</f>
         <v>3848.9114697140485</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="2">
         <f>+C3*E3</f>
         <v>3290.1490077304061</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
         <v>0</v>
       </c>
       <c r="W8" s="6"/>
@@ -1115,15 +1121,15 @@
       </c>
       <c r="Y8">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>5.8823529411764705E-3</v>
       </c>
       <c r="Z8">
         <f>+Q8*Y4+R8*Y5</f>
-        <v>2105.5077418372844</v>
+        <v>78.578829863894782</v>
       </c>
       <c r="AB8">
         <f t="shared" si="2"/>
-        <v>-2102.272141766372</v>
+        <v>8.4106495041887807E-10</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
@@ -1143,45 +1149,45 @@
         <v>2247.5326527373791</v>
       </c>
       <c r="I9">
-        <f>+(F6+F8)/D6</f>
-        <v>0.29854105011619803</v>
-      </c>
-      <c r="J9" s="4"/>
+        <f>+(F6+F7)/D6</f>
+        <v>0.49051546422091397</v>
+      </c>
+      <c r="J9" s="5"/>
       <c r="K9" t="s">
         <v>18</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>2.3883284009295842</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
+        <v>91.726391809310911</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
         <f>+C6*E6</f>
         <v>1924.4557348570243</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="2">
         <f>+C7*E7</f>
         <v>6580.2980154608122</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
         <v>0</v>
       </c>
       <c r="W9" s="6"/>
@@ -1190,15 +1196,15 @@
       </c>
       <c r="Y9">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>5.3475935828877002E-3</v>
       </c>
       <c r="Z9">
         <f>+Q9*Y4+R9*Y5</f>
-        <v>2286.5597488175445</v>
+        <v>91.726164742650738</v>
       </c>
       <c r="AB9">
         <f t="shared" si="2"/>
-        <v>-2284.1714204166151</v>
+        <v>5.1559268162182594E-8</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.4">
@@ -1241,12 +1247,15 @@
       <c r="F11">
         <v>1131.8613314725853</v>
       </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
       <c r="AA11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB11">
-        <f>+SUM(AB2:AB9)</f>
-        <v>-16306.787399758687</v>
+        <f>+SUM(AB2:AB9)+1000000000*(L2-100)^2</f>
+        <v>8.8074933009743865E-8</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
@@ -1276,6 +1285,12 @@
       <c r="D13">
         <v>9340.9982941186736</v>
       </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
@@ -1297,6 +1312,12 @@
       <c r="F14">
         <v>846.50883859570604</v>
       </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>105.88235294117648</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
@@ -1317,6 +1338,12 @@
       <c r="F15">
         <v>1918.7760544121368</v>
       </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>88.235294117647058</v>
+      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
@@ -1331,8 +1358,14 @@
       <c r="D16">
         <v>12130.315952407718</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>94.117647058823522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1344,6 +1377,36 @@
       </c>
       <c r="D17">
         <v>12130.315952407705</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
